--- a/Code/Results/Cases/Case_3_98/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_98/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.013783923105153</v>
+        <v>1.046971140552575</v>
       </c>
       <c r="D2">
-        <v>1.033888972339005</v>
+        <v>1.052256501597609</v>
       </c>
       <c r="E2">
-        <v>1.028842053673224</v>
+        <v>1.054418954131038</v>
       </c>
       <c r="F2">
-        <v>1.04115786192935</v>
+        <v>1.064986505882286</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055273922956576</v>
+        <v>1.043176314603966</v>
       </c>
       <c r="J2">
-        <v>1.035560032956732</v>
+        <v>1.052022694742469</v>
       </c>
       <c r="K2">
-        <v>1.044895536984197</v>
+        <v>1.055005736653696</v>
       </c>
       <c r="L2">
-        <v>1.039913680538365</v>
+        <v>1.057162217365531</v>
       </c>
       <c r="M2">
-        <v>1.052072102936554</v>
+        <v>1.067700963367275</v>
       </c>
       <c r="N2">
-        <v>1.015309577281488</v>
+        <v>1.021140948893315</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.019236323463464</v>
+        <v>1.04811049665252</v>
       </c>
       <c r="D3">
-        <v>1.037987151927938</v>
+        <v>1.053121253672735</v>
       </c>
       <c r="E3">
-        <v>1.033340904400899</v>
+        <v>1.055403823078129</v>
       </c>
       <c r="F3">
-        <v>1.045783560028664</v>
+        <v>1.065991035406303</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056974356771813</v>
+        <v>1.043438696995859</v>
       </c>
       <c r="J3">
-        <v>1.039215977981574</v>
+        <v>1.052809400490087</v>
       </c>
       <c r="K3">
-        <v>1.048155999885878</v>
+        <v>1.055683164831751</v>
       </c>
       <c r="L3">
-        <v>1.043564240286398</v>
+        <v>1.057959886995395</v>
       </c>
       <c r="M3">
-        <v>1.055862320100281</v>
+        <v>1.068520330886146</v>
       </c>
       <c r="N3">
-        <v>1.016559439188585</v>
+        <v>1.021406544510382</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.022683740570901</v>
+        <v>1.048847791319519</v>
       </c>
       <c r="D4">
-        <v>1.040579734842527</v>
+        <v>1.053680580245494</v>
       </c>
       <c r="E4">
-        <v>1.036191046411571</v>
+        <v>1.056041426064152</v>
       </c>
       <c r="F4">
-        <v>1.048712841081062</v>
+        <v>1.066641200836714</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058035746292823</v>
+        <v>1.043606764293574</v>
       </c>
       <c r="J4">
-        <v>1.041524469437041</v>
+        <v>1.053317953688032</v>
       </c>
       <c r="K4">
-        <v>1.050211876732634</v>
+        <v>1.056120639761001</v>
       </c>
       <c r="L4">
-        <v>1.045871450526062</v>
+        <v>1.058475742665028</v>
       </c>
       <c r="M4">
-        <v>1.058256852428057</v>
+        <v>1.069050069263405</v>
       </c>
       <c r="N4">
-        <v>1.0173481988067</v>
+        <v>1.021578121104192</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.024114523297724</v>
+        <v>1.049157763821329</v>
       </c>
       <c r="D5">
-        <v>1.041656000282631</v>
+        <v>1.053915666745964</v>
       </c>
       <c r="E5">
-        <v>1.037375232806073</v>
+        <v>1.056309552471008</v>
       </c>
       <c r="F5">
-        <v>1.049929608628157</v>
+        <v>1.066914570288216</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05847289915735</v>
+        <v>1.043677009830303</v>
       </c>
       <c r="J5">
-        <v>1.042481780656665</v>
+        <v>1.053531630260013</v>
       </c>
       <c r="K5">
-        <v>1.05106371755619</v>
+        <v>1.056304346647832</v>
       </c>
       <c r="L5">
-        <v>1.046828733579316</v>
+        <v>1.058692538911734</v>
       </c>
       <c r="M5">
-        <v>1.059250131150047</v>
+        <v>1.06927266404678</v>
       </c>
       <c r="N5">
-        <v>1.017675176135028</v>
+        <v>1.021650184440315</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.024353694780082</v>
+        <v>1.049209810397503</v>
       </c>
       <c r="D6">
-        <v>1.041835923718717</v>
+        <v>1.053955135604858</v>
       </c>
       <c r="E6">
-        <v>1.037573257135238</v>
+        <v>1.056354576650522</v>
       </c>
       <c r="F6">
-        <v>1.050133063496345</v>
+        <v>1.066960472555208</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05854577527515</v>
+        <v>1.043688780319715</v>
       </c>
       <c r="J6">
-        <v>1.04264175870972</v>
+        <v>1.053567500508189</v>
       </c>
       <c r="K6">
-        <v>1.051206027763502</v>
+        <v>1.056335179665696</v>
       </c>
       <c r="L6">
-        <v>1.046988736363776</v>
+        <v>1.0587289358793</v>
       </c>
       <c r="M6">
-        <v>1.059416136274747</v>
+        <v>1.069310032397319</v>
       </c>
       <c r="N6">
-        <v>1.017729810990825</v>
+        <v>1.021662280233527</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.02270293047723</v>
+        <v>1.048851933132142</v>
       </c>
       <c r="D7">
-        <v>1.040594168948144</v>
+        <v>1.053683721696954</v>
       </c>
       <c r="E7">
-        <v>1.036206923899873</v>
+        <v>1.056045008475598</v>
       </c>
       <c r="F7">
-        <v>1.048729156608051</v>
+        <v>1.066644853456207</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058041622800254</v>
+        <v>1.043607704528953</v>
       </c>
       <c r="J7">
-        <v>1.041537312214404</v>
+        <v>1.053320809313151</v>
       </c>
       <c r="K7">
-        <v>1.050223307420618</v>
+        <v>1.056123095277241</v>
       </c>
       <c r="L7">
-        <v>1.04588429094296</v>
+        <v>1.058478639780178</v>
       </c>
       <c r="M7">
-        <v>1.058270176609651</v>
+        <v>1.06905304400736</v>
       </c>
       <c r="N7">
-        <v>1.017352585821978</v>
+        <v>1.021579084283186</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.015643781352256</v>
+        <v>1.047356180258872</v>
       </c>
       <c r="D8">
-        <v>1.035286554131029</v>
+        <v>1.052548795180077</v>
       </c>
       <c r="E8">
-        <v>1.030375427893173</v>
+        <v>1.054751727420257</v>
       </c>
       <c r="F8">
-        <v>1.042734722700568</v>
+        <v>1.065325956484914</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05585680870598</v>
+        <v>1.043265342263073</v>
       </c>
       <c r="J8">
-        <v>1.036807722254444</v>
+        <v>1.052288668775607</v>
       </c>
       <c r="K8">
-        <v>1.046008853910413</v>
+        <v>1.055234855980049</v>
       </c>
       <c r="L8">
-        <v>1.041159082962033</v>
+        <v>1.057431853540679</v>
       </c>
       <c r="M8">
-        <v>1.053365342877368</v>
+        <v>1.067977964950478</v>
       </c>
       <c r="N8">
-        <v>1.015736215697043</v>
+        <v>1.021230766429631</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.002548592598556</v>
+        <v>1.044720865492524</v>
       </c>
       <c r="D9">
-        <v>1.025455398407536</v>
+        <v>1.050547193540757</v>
       </c>
       <c r="E9">
-        <v>1.019605666147494</v>
+        <v>1.052475310932635</v>
       </c>
       <c r="F9">
-        <v>1.031654619139601</v>
+        <v>1.063003185146699</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051696462186317</v>
+        <v>1.042648954595798</v>
       </c>
       <c r="J9">
-        <v>1.028011673377414</v>
+        <v>1.050466088748033</v>
       </c>
       <c r="K9">
-        <v>1.038148551648124</v>
+        <v>1.053663035493306</v>
       </c>
       <c r="L9">
-        <v>1.032388466538381</v>
+        <v>1.05558506446089</v>
       </c>
       <c r="M9">
-        <v>1.044254181401818</v>
+        <v>1.066080120166655</v>
       </c>
       <c r="N9">
-        <v>1.012726862882005</v>
+        <v>1.020614832341806</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9933193230183877</v>
+        <v>1.042964209649567</v>
       </c>
       <c r="D10">
-        <v>1.018541992303836</v>
+        <v>1.049211654093255</v>
       </c>
       <c r="E10">
-        <v>1.01205247272782</v>
+        <v>1.050959392722885</v>
       </c>
       <c r="F10">
-        <v>1.02387785656239</v>
+        <v>1.06145555043368</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048695359189387</v>
+        <v>1.042229229412555</v>
       </c>
       <c r="J10">
-        <v>1.021800530666696</v>
+        <v>1.049248463377292</v>
       </c>
       <c r="K10">
-        <v>1.032584345646705</v>
+        <v>1.052610703714653</v>
       </c>
       <c r="L10">
-        <v>1.026207473241143</v>
+        <v>1.054352380997456</v>
       </c>
       <c r="M10">
-        <v>1.037828969310952</v>
+        <v>1.064812598515304</v>
       </c>
       <c r="N10">
-        <v>1.010600167640647</v>
+        <v>1.020202764325934</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9891901770394961</v>
+        <v>1.04220359999684</v>
       </c>
       <c r="D11">
-        <v>1.015453916825107</v>
+        <v>1.04863308310572</v>
       </c>
       <c r="E11">
-        <v>1.008683127153476</v>
+        <v>1.050303385019501</v>
       </c>
       <c r="F11">
-        <v>1.020407490818364</v>
+        <v>1.060785617158178</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047337225374415</v>
+        <v>1.042045397833089</v>
       </c>
       <c r="J11">
-        <v>1.019019675894275</v>
+        <v>1.048720605864914</v>
       </c>
       <c r="K11">
-        <v>1.03009016325431</v>
+        <v>1.052153976960758</v>
       </c>
       <c r="L11">
-        <v>1.023443129391819</v>
+        <v>1.053818261058483</v>
       </c>
       <c r="M11">
-        <v>1.034954547372136</v>
+        <v>1.064263204464282</v>
       </c>
       <c r="N11">
-        <v>1.009647712884399</v>
+        <v>1.020023991758526</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9876351248560113</v>
+        <v>1.041921079774664</v>
       </c>
       <c r="D12">
-        <v>1.014291799855791</v>
+        <v>1.048418135055939</v>
       </c>
       <c r="E12">
-        <v>1.007415812658154</v>
+        <v>1.050059773773202</v>
       </c>
       <c r="F12">
-        <v>1.01910199623473</v>
+        <v>1.060536804540306</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04682350856962</v>
+        <v>1.041976800958749</v>
       </c>
       <c r="J12">
-        <v>1.017972166442543</v>
+        <v>1.048524442981721</v>
       </c>
       <c r="K12">
-        <v>1.029150219814149</v>
+        <v>1.051984168952382</v>
       </c>
       <c r="L12">
-        <v>1.02240230327279</v>
+        <v>1.053619810891072</v>
       </c>
       <c r="M12">
-        <v>1.033872159674368</v>
+        <v>1.064059052517512</v>
       </c>
       <c r="N12">
-        <v>1.009288902911268</v>
+        <v>1.019957535904344</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9879696758377525</v>
+        <v>1.041981681153729</v>
       </c>
       <c r="D13">
-        <v>1.014541774480114</v>
+        <v>1.04846424399747</v>
       </c>
       <c r="E13">
-        <v>1.007688386588396</v>
+        <v>1.050112026534203</v>
       </c>
       <c r="F13">
-        <v>1.019382790039318</v>
+        <v>1.060590174315053</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04693412835046</v>
+        <v>1.04199152941362</v>
       </c>
       <c r="J13">
-        <v>1.018197534758122</v>
+        <v>1.048566524803869</v>
       </c>
       <c r="K13">
-        <v>1.029352464137887</v>
+        <v>1.052020600559148</v>
       </c>
       <c r="L13">
-        <v>1.02262621254593</v>
+        <v>1.053662381582965</v>
       </c>
       <c r="M13">
-        <v>1.034105014922204</v>
+        <v>1.064102847539315</v>
       </c>
       <c r="N13">
-        <v>1.009366101076733</v>
+        <v>1.01997179325338</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9890620787535777</v>
+        <v>1.042180246710076</v>
       </c>
       <c r="D14">
-        <v>1.01535816853227</v>
+        <v>1.048615316269305</v>
       </c>
       <c r="E14">
-        <v>1.008578698429827</v>
+        <v>1.050283246830355</v>
       </c>
       <c r="F14">
-        <v>1.020299919656058</v>
+        <v>1.060765049609027</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047294952639253</v>
+        <v>1.042039733992074</v>
       </c>
       <c r="J14">
-        <v>1.018933390934398</v>
+        <v>1.04870439288075</v>
       </c>
       <c r="K14">
-        <v>1.03001274702927</v>
+        <v>1.052139943829113</v>
       </c>
       <c r="L14">
-        <v>1.023357385457618</v>
+        <v>1.053801858213245</v>
       </c>
       <c r="M14">
-        <v>1.034865381827297</v>
+        <v>1.064246330884839</v>
       </c>
       <c r="N14">
-        <v>1.009618157776717</v>
+        <v>1.020018499552959</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9897322789338694</v>
+        <v>1.042302590011288</v>
       </c>
       <c r="D15">
-        <v>1.01585915200377</v>
+        <v>1.048708391448217</v>
       </c>
       <c r="E15">
-        <v>1.009125126857682</v>
+        <v>1.050388749150336</v>
       </c>
       <c r="F15">
-        <v>1.020862783644518</v>
+        <v>1.060872800080364</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047516029616729</v>
+        <v>1.042069392864199</v>
       </c>
       <c r="J15">
-        <v>1.019384818197883</v>
+        <v>1.048789325607467</v>
       </c>
       <c r="K15">
-        <v>1.030417757763526</v>
+        <v>1.05221345403784</v>
       </c>
       <c r="L15">
-        <v>1.023806001133753</v>
+        <v>1.053887787175821</v>
       </c>
       <c r="M15">
-        <v>1.035331894897598</v>
+        <v>1.064334724770444</v>
       </c>
       <c r="N15">
-        <v>1.009772783438979</v>
+        <v>1.020047269985915</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9935904500693139</v>
+        <v>1.043014689434207</v>
       </c>
       <c r="D16">
-        <v>1.018744873802762</v>
+        <v>1.049250046186879</v>
       </c>
       <c r="E16">
-        <v>1.012273924853965</v>
+        <v>1.051002938104662</v>
       </c>
       <c r="F16">
-        <v>1.024105922309716</v>
+        <v>1.061500015968072</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048784222271797</v>
+        <v>1.04224138572388</v>
       </c>
       <c r="J16">
-        <v>1.021983090788375</v>
+        <v>1.049283482502412</v>
       </c>
       <c r="K16">
-        <v>1.032748026474929</v>
+        <v>1.05264099282218</v>
       </c>
       <c r="L16">
-        <v>1.026389012994217</v>
+        <v>1.054387821181934</v>
       </c>
       <c r="M16">
-        <v>1.038017721418876</v>
+        <v>1.064849048419367</v>
       </c>
       <c r="N16">
-        <v>1.010662690082435</v>
+        <v>1.020214621614635</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9959741046002337</v>
+        <v>1.043461378945632</v>
       </c>
       <c r="D17">
-        <v>1.02052911405455</v>
+        <v>1.049589738703813</v>
       </c>
       <c r="E17">
-        <v>1.01422199378143</v>
+        <v>1.05138830825922</v>
       </c>
       <c r="F17">
-        <v>1.026112024411088</v>
+        <v>1.061893506187854</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049563730921718</v>
+        <v>1.042348713357047</v>
       </c>
       <c r="J17">
-        <v>1.023587875994468</v>
+        <v>1.049593288483562</v>
       </c>
       <c r="K17">
-        <v>1.034186519828828</v>
+        <v>1.052908892718522</v>
       </c>
       <c r="L17">
-        <v>1.027985171882072</v>
+        <v>1.054701382835</v>
       </c>
       <c r="M17">
-        <v>1.039677198158864</v>
+        <v>1.065171523067421</v>
       </c>
       <c r="N17">
-        <v>1.011212258606028</v>
+        <v>1.020319504650606</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9973517327938476</v>
+        <v>1.04372192872195</v>
       </c>
       <c r="D18">
-        <v>1.021560773165312</v>
+        <v>1.049787849198914</v>
       </c>
       <c r="E18">
-        <v>1.015348808571655</v>
+        <v>1.051613126258258</v>
       </c>
       <c r="F18">
-        <v>1.027272284138453</v>
+        <v>1.062123041942459</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050012778897556</v>
+        <v>1.042411114304922</v>
       </c>
       <c r="J18">
-        <v>1.024515163161656</v>
+        <v>1.049773933492791</v>
       </c>
       <c r="K18">
-        <v>1.035017436017915</v>
+        <v>1.053065051912149</v>
       </c>
       <c r="L18">
-        <v>1.028907758649604</v>
+        <v>1.054884243332351</v>
       </c>
       <c r="M18">
-        <v>1.040636301048982</v>
+        <v>1.065359564127141</v>
       </c>
       <c r="N18">
-        <v>1.011529785658437</v>
+        <v>1.020380647923133</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9978193504599452</v>
+        <v>1.043810770060495</v>
       </c>
       <c r="D19">
-        <v>1.021911031022</v>
+        <v>1.0498553952772</v>
       </c>
       <c r="E19">
-        <v>1.015731446181767</v>
+        <v>1.051689789852953</v>
       </c>
       <c r="F19">
-        <v>1.027666257634705</v>
+        <v>1.06220131102287</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050164950993226</v>
+        <v>1.042432357246138</v>
       </c>
       <c r="J19">
-        <v>1.024829883334161</v>
+        <v>1.04983551867623</v>
       </c>
       <c r="K19">
-        <v>1.035299399171673</v>
+        <v>1.053118280815018</v>
       </c>
       <c r="L19">
-        <v>1.029220931385368</v>
+        <v>1.054946588154287</v>
       </c>
       <c r="M19">
-        <v>1.040961854937687</v>
+        <v>1.065423672290842</v>
       </c>
       <c r="N19">
-        <v>1.011637548902495</v>
+        <v>1.020401490563579</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9957196858071181</v>
+        <v>1.043413453050053</v>
       </c>
       <c r="D20">
-        <v>1.020338624912878</v>
+        <v>1.049553295641827</v>
       </c>
       <c r="E20">
-        <v>1.014013969626206</v>
+        <v>1.05134695774768</v>
       </c>
       <c r="F20">
-        <v>1.025897815885281</v>
+        <v>1.06185128638745</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049480682002533</v>
+        <v>1.04233721895384</v>
       </c>
       <c r="J20">
-        <v>1.023416609381607</v>
+        <v>1.049560055398221</v>
       </c>
       <c r="K20">
-        <v>1.034033029496061</v>
+        <v>1.052880160175135</v>
       </c>
       <c r="L20">
-        <v>1.027814796319962</v>
+        <v>1.054667744228478</v>
       </c>
       <c r="M20">
-        <v>1.039500072393115</v>
+        <v>1.065136930066532</v>
       </c>
       <c r="N20">
-        <v>1.011153610153802</v>
+        <v>1.020308255130472</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9887409928422577</v>
+        <v>1.042121773998777</v>
       </c>
       <c r="D21">
-        <v>1.01511818411734</v>
+        <v>1.048570830382476</v>
       </c>
       <c r="E21">
-        <v>1.008316967696</v>
+        <v>1.050232825086684</v>
       </c>
       <c r="F21">
-        <v>1.020030310082598</v>
+        <v>1.060713552353899</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047188957786095</v>
+        <v>1.042025547602987</v>
       </c>
       <c r="J21">
-        <v>1.018717109163228</v>
+        <v>1.048663796740818</v>
       </c>
       <c r="K21">
-        <v>1.029818688959518</v>
+        <v>1.052104804610341</v>
       </c>
       <c r="L21">
-        <v>1.023142467329529</v>
+        <v>1.053760787320711</v>
       </c>
       <c r="M21">
-        <v>1.034641885586698</v>
+        <v>1.064204080894842</v>
       </c>
       <c r="N21">
-        <v>1.009544074477549</v>
+        <v>1.020004747140937</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9842291982308716</v>
+        <v>1.041309667145687</v>
       </c>
       <c r="D22">
-        <v>1.011748221629903</v>
+        <v>1.047952878163097</v>
       </c>
       <c r="E22">
-        <v>1.004643151672194</v>
+        <v>1.049532668258113</v>
       </c>
       <c r="F22">
-        <v>1.01624547908569</v>
+        <v>1.059998389845872</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045694324906469</v>
+        <v>1.041827772838969</v>
       </c>
       <c r="J22">
-        <v>1.015677540244988</v>
+        <v>1.048099744551327</v>
       </c>
       <c r="K22">
-        <v>1.027090482128134</v>
+        <v>1.051616385764342</v>
       </c>
       <c r="L22">
-        <v>1.020123184596535</v>
+        <v>1.053190233609111</v>
       </c>
       <c r="M22">
-        <v>1.031501836329925</v>
+        <v>1.063617084033906</v>
       </c>
       <c r="N22">
-        <v>1.008502860153065</v>
+        <v>1.01981362012703</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9866332235461759</v>
+        <v>1.041740178514073</v>
       </c>
       <c r="D23">
-        <v>1.013543321013307</v>
+        <v>1.048280488796139</v>
       </c>
       <c r="E23">
-        <v>1.006599759866938</v>
+        <v>1.049903802201792</v>
       </c>
       <c r="F23">
-        <v>1.018261308144184</v>
+        <v>1.060377494349165</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046491907000481</v>
+        <v>1.041932788979137</v>
       </c>
       <c r="J23">
-        <v>1.017297213810626</v>
+        <v>1.048398810461765</v>
       </c>
       <c r="K23">
-        <v>1.028544461629083</v>
+        <v>1.051875393261496</v>
       </c>
       <c r="L23">
-        <v>1.021731789223287</v>
+        <v>1.053492724740764</v>
       </c>
       <c r="M23">
-        <v>1.033174840393869</v>
+        <v>1.063928307471952</v>
       </c>
       <c r="N23">
-        <v>1.00905769902672</v>
+        <v>1.01991496856928</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9958346859087398</v>
+        <v>1.043435108688642</v>
       </c>
       <c r="D24">
-        <v>1.02042472668495</v>
+        <v>1.049569762774316</v>
       </c>
       <c r="E24">
-        <v>1.014107995954732</v>
+        <v>1.051365642146023</v>
       </c>
       <c r="F24">
-        <v>1.025994637913985</v>
+        <v>1.061870363637305</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049518225588878</v>
+        <v>1.042342413402228</v>
       </c>
       <c r="J24">
-        <v>1.023494024391054</v>
+        <v>1.049575072182881</v>
       </c>
       <c r="K24">
-        <v>1.034102410247962</v>
+        <v>1.052893143490605</v>
       </c>
       <c r="L24">
-        <v>1.027891807680827</v>
+        <v>1.054682944173891</v>
       </c>
       <c r="M24">
-        <v>1.039580135164661</v>
+        <v>1.065152561318034</v>
       </c>
       <c r="N24">
-        <v>1.011180120198453</v>
+        <v>1.020313338407008</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.00601745521203</v>
+        <v>1.04540211544123</v>
       </c>
       <c r="D25">
-        <v>1.028057385607352</v>
+        <v>1.051064857295627</v>
       </c>
       <c r="E25">
-        <v>1.022452496814515</v>
+        <v>1.053063521162587</v>
       </c>
       <c r="F25">
-        <v>1.034584537607787</v>
+        <v>1.063603522888727</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052810647230375</v>
+        <v>1.042809857281421</v>
       </c>
       <c r="J25">
-        <v>1.030343991247465</v>
+        <v>1.05093772225521</v>
       </c>
       <c r="K25">
-        <v>1.040235218314653</v>
+        <v>1.054070173768106</v>
       </c>
       <c r="L25">
-        <v>1.034711985630353</v>
+        <v>1.056062766482025</v>
       </c>
       <c r="M25">
-        <v>1.046668688912415</v>
+        <v>1.066571162927034</v>
       </c>
       <c r="N25">
-        <v>1.013525136992779</v>
+        <v>1.020774320996714</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_98/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_98/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.046971140552575</v>
+        <v>1.013783923105152</v>
       </c>
       <c r="D2">
-        <v>1.052256501597609</v>
+        <v>1.033888972339004</v>
       </c>
       <c r="E2">
-        <v>1.054418954131038</v>
+        <v>1.028842053673224</v>
       </c>
       <c r="F2">
-        <v>1.064986505882286</v>
+        <v>1.04115786192935</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043176314603966</v>
+        <v>1.055273922956576</v>
       </c>
       <c r="J2">
-        <v>1.052022694742469</v>
+        <v>1.035560032956731</v>
       </c>
       <c r="K2">
-        <v>1.055005736653696</v>
+        <v>1.044895536984196</v>
       </c>
       <c r="L2">
-        <v>1.057162217365531</v>
+        <v>1.039913680538365</v>
       </c>
       <c r="M2">
-        <v>1.067700963367275</v>
+        <v>1.052072102936553</v>
       </c>
       <c r="N2">
-        <v>1.021140948893315</v>
+        <v>1.015309577281488</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.04811049665252</v>
+        <v>1.019236323463463</v>
       </c>
       <c r="D3">
-        <v>1.053121253672735</v>
+        <v>1.037987151927937</v>
       </c>
       <c r="E3">
-        <v>1.055403823078129</v>
+        <v>1.033340904400899</v>
       </c>
       <c r="F3">
-        <v>1.065991035406303</v>
+        <v>1.045783560028663</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043438696995859</v>
+        <v>1.056974356771813</v>
       </c>
       <c r="J3">
-        <v>1.052809400490087</v>
+        <v>1.039215977981573</v>
       </c>
       <c r="K3">
-        <v>1.055683164831751</v>
+        <v>1.048155999885877</v>
       </c>
       <c r="L3">
-        <v>1.057959886995395</v>
+        <v>1.043564240286398</v>
       </c>
       <c r="M3">
-        <v>1.068520330886146</v>
+        <v>1.055862320100281</v>
       </c>
       <c r="N3">
-        <v>1.021406544510382</v>
+        <v>1.016559439188585</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.048847791319519</v>
+        <v>1.022683740570901</v>
       </c>
       <c r="D4">
-        <v>1.053680580245494</v>
+        <v>1.040579734842528</v>
       </c>
       <c r="E4">
-        <v>1.056041426064152</v>
+        <v>1.036191046411571</v>
       </c>
       <c r="F4">
-        <v>1.066641200836714</v>
+        <v>1.048712841081062</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043606764293574</v>
+        <v>1.058035746292823</v>
       </c>
       <c r="J4">
-        <v>1.053317953688032</v>
+        <v>1.041524469437042</v>
       </c>
       <c r="K4">
-        <v>1.056120639761001</v>
+        <v>1.050211876732634</v>
       </c>
       <c r="L4">
-        <v>1.058475742665028</v>
+        <v>1.045871450526062</v>
       </c>
       <c r="M4">
-        <v>1.069050069263405</v>
+        <v>1.058256852428058</v>
       </c>
       <c r="N4">
-        <v>1.021578121104192</v>
+        <v>1.0173481988067</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.049157763821329</v>
+        <v>1.024114523297723</v>
       </c>
       <c r="D5">
-        <v>1.053915666745964</v>
+        <v>1.041656000282631</v>
       </c>
       <c r="E5">
-        <v>1.056309552471008</v>
+        <v>1.037375232806072</v>
       </c>
       <c r="F5">
-        <v>1.066914570288216</v>
+        <v>1.049929608628156</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043677009830303</v>
+        <v>1.05847289915735</v>
       </c>
       <c r="J5">
-        <v>1.053531630260013</v>
+        <v>1.042481780656665</v>
       </c>
       <c r="K5">
-        <v>1.056304346647832</v>
+        <v>1.05106371755619</v>
       </c>
       <c r="L5">
-        <v>1.058692538911734</v>
+        <v>1.046828733579316</v>
       </c>
       <c r="M5">
-        <v>1.06927266404678</v>
+        <v>1.059250131150046</v>
       </c>
       <c r="N5">
-        <v>1.021650184440315</v>
+        <v>1.017675176135028</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.049209810397503</v>
+        <v>1.024353694780083</v>
       </c>
       <c r="D6">
-        <v>1.053955135604858</v>
+        <v>1.041835923718718</v>
       </c>
       <c r="E6">
-        <v>1.056354576650522</v>
+        <v>1.037573257135239</v>
       </c>
       <c r="F6">
-        <v>1.066960472555208</v>
+        <v>1.050133063496346</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043688780319715</v>
+        <v>1.058545775275151</v>
       </c>
       <c r="J6">
-        <v>1.053567500508189</v>
+        <v>1.042641758709721</v>
       </c>
       <c r="K6">
-        <v>1.056335179665696</v>
+        <v>1.051206027763502</v>
       </c>
       <c r="L6">
-        <v>1.0587289358793</v>
+        <v>1.046988736363776</v>
       </c>
       <c r="M6">
-        <v>1.069310032397319</v>
+        <v>1.059416136274748</v>
       </c>
       <c r="N6">
-        <v>1.021662280233527</v>
+        <v>1.017729810990826</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.048851933132142</v>
+        <v>1.022702930477229</v>
       </c>
       <c r="D7">
-        <v>1.053683721696954</v>
+        <v>1.040594168948144</v>
       </c>
       <c r="E7">
-        <v>1.056045008475598</v>
+        <v>1.036206923899872</v>
       </c>
       <c r="F7">
-        <v>1.066644853456207</v>
+        <v>1.04872915660805</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043607704528953</v>
+        <v>1.058041622800253</v>
       </c>
       <c r="J7">
-        <v>1.053320809313151</v>
+        <v>1.041537312214404</v>
       </c>
       <c r="K7">
-        <v>1.056123095277241</v>
+        <v>1.050223307420617</v>
       </c>
       <c r="L7">
-        <v>1.058478639780178</v>
+        <v>1.04588429094296</v>
       </c>
       <c r="M7">
-        <v>1.06905304400736</v>
+        <v>1.058270176609651</v>
       </c>
       <c r="N7">
-        <v>1.021579084283186</v>
+        <v>1.017352585821978</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.047356180258872</v>
+        <v>1.015643781352256</v>
       </c>
       <c r="D8">
-        <v>1.052548795180077</v>
+        <v>1.035286554131029</v>
       </c>
       <c r="E8">
-        <v>1.054751727420257</v>
+        <v>1.030375427893173</v>
       </c>
       <c r="F8">
-        <v>1.065325956484914</v>
+        <v>1.042734722700568</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043265342263073</v>
+        <v>1.055856808705981</v>
       </c>
       <c r="J8">
-        <v>1.052288668775607</v>
+        <v>1.036807722254444</v>
       </c>
       <c r="K8">
-        <v>1.055234855980049</v>
+        <v>1.046008853910413</v>
       </c>
       <c r="L8">
-        <v>1.057431853540679</v>
+        <v>1.041159082962033</v>
       </c>
       <c r="M8">
-        <v>1.067977964950478</v>
+        <v>1.053365342877368</v>
       </c>
       <c r="N8">
-        <v>1.021230766429631</v>
+        <v>1.015736215697043</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.044720865492524</v>
+        <v>1.002548592598557</v>
       </c>
       <c r="D9">
-        <v>1.050547193540757</v>
+        <v>1.025455398407537</v>
       </c>
       <c r="E9">
-        <v>1.052475310932635</v>
+        <v>1.019605666147494</v>
       </c>
       <c r="F9">
-        <v>1.063003185146699</v>
+        <v>1.031654619139601</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042648954595798</v>
+        <v>1.051696462186318</v>
       </c>
       <c r="J9">
-        <v>1.050466088748033</v>
+        <v>1.028011673377414</v>
       </c>
       <c r="K9">
-        <v>1.053663035493306</v>
+        <v>1.038148551648125</v>
       </c>
       <c r="L9">
-        <v>1.05558506446089</v>
+        <v>1.032388466538381</v>
       </c>
       <c r="M9">
-        <v>1.066080120166655</v>
+        <v>1.044254181401818</v>
       </c>
       <c r="N9">
-        <v>1.020614832341806</v>
+        <v>1.012726862882005</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.042964209649567</v>
+        <v>0.9933193230183871</v>
       </c>
       <c r="D10">
-        <v>1.049211654093255</v>
+        <v>1.018541992303836</v>
       </c>
       <c r="E10">
-        <v>1.050959392722885</v>
+        <v>1.012052472727819</v>
       </c>
       <c r="F10">
-        <v>1.06145555043368</v>
+        <v>1.02387785656239</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042229229412555</v>
+        <v>1.048695359189387</v>
       </c>
       <c r="J10">
-        <v>1.049248463377292</v>
+        <v>1.021800530666696</v>
       </c>
       <c r="K10">
-        <v>1.052610703714653</v>
+        <v>1.032584345646704</v>
       </c>
       <c r="L10">
-        <v>1.054352380997456</v>
+        <v>1.026207473241143</v>
       </c>
       <c r="M10">
-        <v>1.064812598515304</v>
+        <v>1.037828969310951</v>
       </c>
       <c r="N10">
-        <v>1.020202764325934</v>
+        <v>1.010600167640647</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.04220359999684</v>
+        <v>0.989190177039495</v>
       </c>
       <c r="D11">
-        <v>1.04863308310572</v>
+        <v>1.015453916825106</v>
       </c>
       <c r="E11">
-        <v>1.050303385019501</v>
+        <v>1.008683127153475</v>
       </c>
       <c r="F11">
-        <v>1.060785617158178</v>
+        <v>1.020407490818363</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042045397833089</v>
+        <v>1.047337225374414</v>
       </c>
       <c r="J11">
-        <v>1.048720605864914</v>
+        <v>1.019019675894274</v>
       </c>
       <c r="K11">
-        <v>1.052153976960758</v>
+        <v>1.030090163254309</v>
       </c>
       <c r="L11">
-        <v>1.053818261058483</v>
+        <v>1.023443129391818</v>
       </c>
       <c r="M11">
-        <v>1.064263204464282</v>
+        <v>1.034954547372135</v>
       </c>
       <c r="N11">
-        <v>1.020023991758526</v>
+        <v>1.009647712884398</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.041921079774664</v>
+        <v>0.9876351248560118</v>
       </c>
       <c r="D12">
-        <v>1.048418135055939</v>
+        <v>1.014291799855791</v>
       </c>
       <c r="E12">
-        <v>1.050059773773202</v>
+        <v>1.007415812658154</v>
       </c>
       <c r="F12">
-        <v>1.060536804540306</v>
+        <v>1.019101996234731</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041976800958749</v>
+        <v>1.046823508569621</v>
       </c>
       <c r="J12">
-        <v>1.048524442981721</v>
+        <v>1.017972166442543</v>
       </c>
       <c r="K12">
-        <v>1.051984168952382</v>
+        <v>1.02915021981415</v>
       </c>
       <c r="L12">
-        <v>1.053619810891072</v>
+        <v>1.02240230327279</v>
       </c>
       <c r="M12">
-        <v>1.064059052517512</v>
+        <v>1.033872159674369</v>
       </c>
       <c r="N12">
-        <v>1.019957535904344</v>
+        <v>1.009288902911269</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.041981681153729</v>
+        <v>0.9879696758377524</v>
       </c>
       <c r="D13">
-        <v>1.04846424399747</v>
+        <v>1.014541774480114</v>
       </c>
       <c r="E13">
-        <v>1.050112026534203</v>
+        <v>1.007688386588396</v>
       </c>
       <c r="F13">
-        <v>1.060590174315053</v>
+        <v>1.019382790039319</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04199152941362</v>
+        <v>1.04693412835046</v>
       </c>
       <c r="J13">
-        <v>1.048566524803869</v>
+        <v>1.018197534758122</v>
       </c>
       <c r="K13">
-        <v>1.052020600559148</v>
+        <v>1.029352464137888</v>
       </c>
       <c r="L13">
-        <v>1.053662381582965</v>
+        <v>1.02262621254593</v>
       </c>
       <c r="M13">
-        <v>1.064102847539315</v>
+        <v>1.034105014922205</v>
       </c>
       <c r="N13">
-        <v>1.01997179325338</v>
+        <v>1.009366101076733</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.042180246710076</v>
+        <v>0.9890620787535772</v>
       </c>
       <c r="D14">
-        <v>1.048615316269305</v>
+        <v>1.015358168532269</v>
       </c>
       <c r="E14">
-        <v>1.050283246830355</v>
+        <v>1.008578698429826</v>
       </c>
       <c r="F14">
-        <v>1.060765049609027</v>
+        <v>1.020299919656057</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042039733992074</v>
+        <v>1.047294952639253</v>
       </c>
       <c r="J14">
-        <v>1.04870439288075</v>
+        <v>1.018933390934398</v>
       </c>
       <c r="K14">
-        <v>1.052139943829113</v>
+        <v>1.030012747029269</v>
       </c>
       <c r="L14">
-        <v>1.053801858213245</v>
+        <v>1.023357385457617</v>
       </c>
       <c r="M14">
-        <v>1.064246330884839</v>
+        <v>1.034865381827296</v>
       </c>
       <c r="N14">
-        <v>1.020018499552959</v>
+        <v>1.009618157776717</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.042302590011288</v>
+        <v>0.9897322789338691</v>
       </c>
       <c r="D15">
-        <v>1.048708391448217</v>
+        <v>1.01585915200377</v>
       </c>
       <c r="E15">
-        <v>1.050388749150336</v>
+        <v>1.009125126857681</v>
       </c>
       <c r="F15">
-        <v>1.060872800080364</v>
+        <v>1.020862783644517</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042069392864199</v>
+        <v>1.047516029616729</v>
       </c>
       <c r="J15">
-        <v>1.048789325607467</v>
+        <v>1.019384818197883</v>
       </c>
       <c r="K15">
-        <v>1.05221345403784</v>
+        <v>1.030417757763525</v>
       </c>
       <c r="L15">
-        <v>1.053887787175821</v>
+        <v>1.023806001133752</v>
       </c>
       <c r="M15">
-        <v>1.064334724770444</v>
+        <v>1.035331894897597</v>
       </c>
       <c r="N15">
-        <v>1.020047269985915</v>
+        <v>1.009772783438979</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.043014689434207</v>
+        <v>0.9935904500693149</v>
       </c>
       <c r="D16">
-        <v>1.049250046186879</v>
+        <v>1.018744873802763</v>
       </c>
       <c r="E16">
-        <v>1.051002938104662</v>
+        <v>1.012273924853966</v>
       </c>
       <c r="F16">
-        <v>1.061500015968072</v>
+        <v>1.024105922309717</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04224138572388</v>
+        <v>1.048784222271798</v>
       </c>
       <c r="J16">
-        <v>1.049283482502412</v>
+        <v>1.021983090788376</v>
       </c>
       <c r="K16">
-        <v>1.05264099282218</v>
+        <v>1.03274802647493</v>
       </c>
       <c r="L16">
-        <v>1.054387821181934</v>
+        <v>1.026389012994217</v>
       </c>
       <c r="M16">
-        <v>1.064849048419367</v>
+        <v>1.038017721418877</v>
       </c>
       <c r="N16">
-        <v>1.020214621614635</v>
+        <v>1.010662690082435</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.043461378945632</v>
+        <v>0.9959741046002328</v>
       </c>
       <c r="D17">
-        <v>1.049589738703813</v>
+        <v>1.020529114054549</v>
       </c>
       <c r="E17">
-        <v>1.05138830825922</v>
+        <v>1.014221993781429</v>
       </c>
       <c r="F17">
-        <v>1.061893506187854</v>
+        <v>1.026112024411088</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042348713357047</v>
+        <v>1.049563730921717</v>
       </c>
       <c r="J17">
-        <v>1.049593288483562</v>
+        <v>1.023587875994467</v>
       </c>
       <c r="K17">
-        <v>1.052908892718522</v>
+        <v>1.034186519828827</v>
       </c>
       <c r="L17">
-        <v>1.054701382835</v>
+        <v>1.027985171882072</v>
       </c>
       <c r="M17">
-        <v>1.065171523067421</v>
+        <v>1.039677198158863</v>
       </c>
       <c r="N17">
-        <v>1.020319504650606</v>
+        <v>1.011212258606028</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.04372192872195</v>
+        <v>0.9973517327938459</v>
       </c>
       <c r="D18">
-        <v>1.049787849198914</v>
+        <v>1.021560773165311</v>
       </c>
       <c r="E18">
-        <v>1.051613126258258</v>
+        <v>1.015348808571653</v>
       </c>
       <c r="F18">
-        <v>1.062123041942459</v>
+        <v>1.027272284138451</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042411114304922</v>
+        <v>1.050012778897555</v>
       </c>
       <c r="J18">
-        <v>1.049773933492791</v>
+        <v>1.024515163161655</v>
       </c>
       <c r="K18">
-        <v>1.053065051912149</v>
+        <v>1.035017436017913</v>
       </c>
       <c r="L18">
-        <v>1.054884243332351</v>
+        <v>1.028907758649602</v>
       </c>
       <c r="M18">
-        <v>1.065359564127141</v>
+        <v>1.04063630104898</v>
       </c>
       <c r="N18">
-        <v>1.020380647923133</v>
+        <v>1.011529785658437</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.043810770060495</v>
+        <v>0.9978193504599449</v>
       </c>
       <c r="D19">
-        <v>1.0498553952772</v>
+        <v>1.021911031022</v>
       </c>
       <c r="E19">
-        <v>1.051689789852953</v>
+        <v>1.015731446181767</v>
       </c>
       <c r="F19">
-        <v>1.06220131102287</v>
+        <v>1.027666257634705</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042432357246138</v>
+        <v>1.050164950993226</v>
       </c>
       <c r="J19">
-        <v>1.04983551867623</v>
+        <v>1.02482988333416</v>
       </c>
       <c r="K19">
-        <v>1.053118280815018</v>
+        <v>1.035299399171672</v>
       </c>
       <c r="L19">
-        <v>1.054946588154287</v>
+        <v>1.029220931385368</v>
       </c>
       <c r="M19">
-        <v>1.065423672290842</v>
+        <v>1.040961854937686</v>
       </c>
       <c r="N19">
-        <v>1.020401490563579</v>
+        <v>1.011637548902495</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.043413453050053</v>
+        <v>0.9957196858071169</v>
       </c>
       <c r="D20">
-        <v>1.049553295641827</v>
+        <v>1.020338624912877</v>
       </c>
       <c r="E20">
-        <v>1.05134695774768</v>
+        <v>1.014013969626205</v>
       </c>
       <c r="F20">
-        <v>1.06185128638745</v>
+        <v>1.025897815885279</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04233721895384</v>
+        <v>1.049480682002532</v>
       </c>
       <c r="J20">
-        <v>1.049560055398221</v>
+        <v>1.023416609381606</v>
       </c>
       <c r="K20">
-        <v>1.052880160175135</v>
+        <v>1.03403302949606</v>
       </c>
       <c r="L20">
-        <v>1.054667744228478</v>
+        <v>1.027814796319961</v>
       </c>
       <c r="M20">
-        <v>1.065136930066532</v>
+        <v>1.039500072393114</v>
       </c>
       <c r="N20">
-        <v>1.020308255130472</v>
+        <v>1.011153610153801</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.042121773998777</v>
+        <v>0.9887409928422569</v>
       </c>
       <c r="D21">
-        <v>1.048570830382476</v>
+        <v>1.015118184117339</v>
       </c>
       <c r="E21">
-        <v>1.050232825086684</v>
+        <v>1.008316967696</v>
       </c>
       <c r="F21">
-        <v>1.060713552353899</v>
+        <v>1.020030310082597</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042025547602987</v>
+        <v>1.047188957786094</v>
       </c>
       <c r="J21">
-        <v>1.048663796740818</v>
+        <v>1.018717109163227</v>
       </c>
       <c r="K21">
-        <v>1.052104804610341</v>
+        <v>1.029818688959518</v>
       </c>
       <c r="L21">
-        <v>1.053760787320711</v>
+        <v>1.023142467329528</v>
       </c>
       <c r="M21">
-        <v>1.064204080894842</v>
+        <v>1.034641885586697</v>
       </c>
       <c r="N21">
-        <v>1.020004747140937</v>
+        <v>1.009544074477549</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.041309667145687</v>
+        <v>0.9842291982308714</v>
       </c>
       <c r="D22">
-        <v>1.047952878163097</v>
+        <v>1.011748221629903</v>
       </c>
       <c r="E22">
-        <v>1.049532668258113</v>
+        <v>1.004643151672194</v>
       </c>
       <c r="F22">
-        <v>1.059998389845872</v>
+        <v>1.016245479085689</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041827772838969</v>
+        <v>1.045694324906469</v>
       </c>
       <c r="J22">
-        <v>1.048099744551327</v>
+        <v>1.015677540244988</v>
       </c>
       <c r="K22">
-        <v>1.051616385764342</v>
+        <v>1.027090482128134</v>
       </c>
       <c r="L22">
-        <v>1.053190233609111</v>
+        <v>1.020123184596536</v>
       </c>
       <c r="M22">
-        <v>1.063617084033906</v>
+        <v>1.031501836329925</v>
       </c>
       <c r="N22">
-        <v>1.01981362012703</v>
+        <v>1.008502860153065</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.041740178514073</v>
+        <v>0.9866332235461746</v>
       </c>
       <c r="D23">
-        <v>1.048280488796139</v>
+        <v>1.013543321013306</v>
       </c>
       <c r="E23">
-        <v>1.049903802201792</v>
+        <v>1.006599759866937</v>
       </c>
       <c r="F23">
-        <v>1.060377494349165</v>
+        <v>1.018261308144183</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041932788979137</v>
+        <v>1.04649190700048</v>
       </c>
       <c r="J23">
-        <v>1.048398810461765</v>
+        <v>1.017297213810625</v>
       </c>
       <c r="K23">
-        <v>1.051875393261496</v>
+        <v>1.028544461629082</v>
       </c>
       <c r="L23">
-        <v>1.053492724740764</v>
+        <v>1.021731789223286</v>
       </c>
       <c r="M23">
-        <v>1.063928307471952</v>
+        <v>1.033174840393868</v>
       </c>
       <c r="N23">
-        <v>1.01991496856928</v>
+        <v>1.009057699026719</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.043435108688642</v>
+        <v>0.9958346859087404</v>
       </c>
       <c r="D24">
-        <v>1.049569762774316</v>
+        <v>1.02042472668495</v>
       </c>
       <c r="E24">
-        <v>1.051365642146023</v>
+        <v>1.014107995954733</v>
       </c>
       <c r="F24">
-        <v>1.061870363637305</v>
+        <v>1.025994637913986</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042342413402228</v>
+        <v>1.049518225588879</v>
       </c>
       <c r="J24">
-        <v>1.049575072182881</v>
+        <v>1.023494024391054</v>
       </c>
       <c r="K24">
-        <v>1.052893143490605</v>
+        <v>1.034102410247963</v>
       </c>
       <c r="L24">
-        <v>1.054682944173891</v>
+        <v>1.027891807680828</v>
       </c>
       <c r="M24">
-        <v>1.065152561318034</v>
+        <v>1.039580135164661</v>
       </c>
       <c r="N24">
-        <v>1.020313338407008</v>
+        <v>1.011180120198454</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.04540211544123</v>
+        <v>1.00601745521203</v>
       </c>
       <c r="D25">
-        <v>1.051064857295627</v>
+        <v>1.028057385607352</v>
       </c>
       <c r="E25">
-        <v>1.053063521162587</v>
+        <v>1.022452496814515</v>
       </c>
       <c r="F25">
-        <v>1.063603522888727</v>
+        <v>1.034584537607787</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042809857281421</v>
+        <v>1.052810647230375</v>
       </c>
       <c r="J25">
-        <v>1.05093772225521</v>
+        <v>1.030343991247465</v>
       </c>
       <c r="K25">
-        <v>1.054070173768106</v>
+        <v>1.040235218314653</v>
       </c>
       <c r="L25">
-        <v>1.056062766482025</v>
+        <v>1.034711985630353</v>
       </c>
       <c r="M25">
-        <v>1.066571162927034</v>
+        <v>1.046668688912415</v>
       </c>
       <c r="N25">
-        <v>1.020774320996714</v>
+        <v>1.013525136992779</v>
       </c>
     </row>
   </sheetData>
